--- a/Technology/Software/Rapid7.xlsx
+++ b/Technology/Software/Rapid7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DFF940-4416-8143-B77F-F007327ABC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DED98C-C4F2-EF40-9472-70D7D3F78A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,12 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2292,13 +2292,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>113.75</v>
+    <v>74.88</v>
     <v>26.484999999999999</v>
-    <v>1.1142000000000001</v>
-    <v>1.42</v>
-    <v>2.8281000000000001E-2</v>
-    <v>0.75</v>
-    <v>1.4525999999999999E-2</v>
+    <v>1.1113999999999999</v>
+    <v>-1.05</v>
+    <v>-2.2831000000000001E-2</v>
+    <v>1.05</v>
+    <v>2.3363999999999999E-2</v>
     <v>USD</v>
     <v>Rapid7, Inc. is engaged in advancing security with visibility, analytics, and automation delivered through its Insight Platform. Its Insight Platform solutions include incident detection and response, cloud security, vulnerability risk management, application security, threat intelligence and security orchestration and automation response. It offers its Insight Platform solutions as software-as-a-service products, on a subscription basis. It provides cloud products across the main pillars of Security Operations (SecOps), which include InsightIDR, InsightCloudSec, InsightVM, InsightAppSec and InsightConnect. Its other products include Threat Intelligence, Nexpose, AppSpider and Metasploit. Its professional service offerings include Penetration Testing, Cybersecurity Maturity Assessments, Security and Incident Response Program Development Services, Internet of things (IoT) and Internet Embedded Device testing, as well as Threat Modeling, TableTop Exercises and Incident Response services.</v>
     <v>2623</v>
@@ -2306,24 +2306,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>120 Causeway Street, BOSTON, MA, 02114 US</v>
-    <v>52.48</v>
+    <v>46.23</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.964646226559</v>
+    <v>45065.875001457811</v>
     <v>0</v>
-    <v>49.805</v>
-    <v>3099900000</v>
+    <v>44.695</v>
+    <v>2712221127</v>
     <v>RAPID7, INC.</v>
     <v>RAPID7, INC.</v>
-    <v>50.32</v>
-    <v>50.21</v>
-    <v>51.63</v>
-    <v>52.38</v>
-    <v>60040680</v>
+    <v>46.23</v>
+    <v>45.99</v>
+    <v>44.94</v>
+    <v>45.99</v>
+    <v>60352050</v>
     <v>RPD</v>
     <v>RAPID7, INC. (XNAS:RPD)</v>
-    <v>2019549</v>
-    <v>965048</v>
+    <v>1016481</v>
+    <v>1419838</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2907,10 +2907,10 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N89" sqref="N89"/>
+      <selection pane="bottomRight" activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3752,15 +3752,15 @@
       </c>
       <c r="S16" s="30">
         <f>T101/L3</f>
-        <v>4.5248531929707791</v>
+        <v>3.9589672010544708</v>
       </c>
       <c r="T16" s="30">
         <f>T101/L28</f>
-        <v>-24.85547279039746</v>
+        <v>-21.747004233584835</v>
       </c>
       <c r="U16" s="31">
         <f>T101/L106</f>
-        <v>76.207684932517154</v>
+        <v>66.677019617965925</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6350,10 +6350,10 @@
       <c r="L83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S83" s="59" t="s">
+      <c r="S83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="T83" s="60"/>
+      <c r="T83" s="62"/>
     </row>
     <row r="84" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6392,10 +6392,10 @@
       <c r="L84" s="1">
         <v>7977000</v>
       </c>
-      <c r="S84" s="61" t="s">
+      <c r="S84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="T84" s="62"/>
+      <c r="T84" s="64"/>
     </row>
     <row r="85" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6805,10 +6805,10 @@
       <c r="L93" s="1">
         <v>-17845000</v>
       </c>
-      <c r="S93" s="63" t="s">
+      <c r="S93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="T93" s="64"/>
+      <c r="T93" s="66"/>
     </row>
     <row r="94" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="T95" s="38" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.1142000000000001</v>
+        <v>1.1113999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="T97" s="36">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>8.8916310000000012E-2</v>
+        <v>8.8795769999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7025,10 +7025,10 @@
       <c r="L98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S98" s="63" t="s">
+      <c r="S98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="T98" s="64"/>
+      <c r="T98" s="66"/>
     </row>
     <row r="99" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="T100" s="34">
         <f>T99/T103</f>
-        <v>0.22777373937469578</v>
+        <v>0.25212273341765923</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="T101" s="39" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3099900000</v>
+        <v>2712221127</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="T102" s="34">
         <f>T101/T103</f>
-        <v>0.77222626062530419</v>
+        <v>0.74787726658234077</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="T103" s="40">
         <f>T99+T101</f>
-        <v>4014238000</v>
+        <v>3626559127</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7292,10 +7292,10 @@
       <c r="L104" s="11">
         <v>207804000</v>
       </c>
-      <c r="S104" s="61" t="s">
+      <c r="S104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="T104" s="62"/>
+      <c r="T104" s="64"/>
     </row>
     <row r="105" spans="1:20" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="T105" s="26">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>7.1453224114948907E-2</v>
+        <v>6.9496272541533288E-2</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7443,7 +7443,7 @@
       <c r="P107" s="42"/>
       <c r="Q107" s="45">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>1668783483.4103692</v>
+        <v>1742176787.5461628</v>
       </c>
       <c r="R107" s="46" t="s">
         <v>148</v>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="Q108" s="45">
         <f>Q107+Q106</f>
-        <v>1744413115.7559175</v>
+        <v>1817806419.8917112</v>
       </c>
       <c r="R108" s="46" t="s">
         <v>144</v>
@@ -7484,14 +7484,14 @@
       </c>
       <c r="T108" s="50">
         <f>T105</f>
-        <v>7.1453224114948907E-2</v>
+        <v>6.9496272541533288E-2</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="65" t="s">
+      <c r="M109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="N109" s="66"/>
+      <c r="N109" s="60"/>
     </row>
     <row r="110" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="M110" s="51" t="s">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="N110" s="39">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>1422385545.2875831</v>
+        <v>1487061559.4117818</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="N113" s="39">
         <f>N110+N111-N112</f>
-        <v>799496545.28758311</v>
+        <v>864172559.41178179</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="N114" s="52" cm="1">
         <f t="array" ref="N114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>60040680</v>
+        <v>60352050</v>
       </c>
     </row>
     <row r="115" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="N115" s="54">
         <f>N113/N114</f>
-        <v>13.315914231610687</v>
+        <v>14.318860078684681</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="N116" s="55" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>51.63</v>
+        <v>44.94</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="N117" s="57">
         <f>N115/N116-1</f>
-        <v>-0.74208959458433688</v>
+        <v>-0.68137828040310011</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
